--- a/app/static/bestK.xlsx
+++ b/app/static/bestK.xlsx
@@ -396,7 +396,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -404,7 +404,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
